--- a/Config/Monster.xlsx
+++ b/Config/Monster.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>怪物ID</t>
   </si>
@@ -75,22 +75,19 @@
     <t>自己</t>
   </si>
   <si>
-    <t>小流氓</t>
-  </si>
-  <si>
     <t>"我错了。大侠，饶命啊！"</t>
   </si>
   <si>
-    <t>小毛贼</t>
-  </si>
-  <si>
-    <t>"点子硬，兄弟们，扯呼~"</t>
-  </si>
-  <si>
-    <t>烟雨庄小仙女</t>
-  </si>
-  <si>
-    <t>"臭流氓，我要把你眼睛挖出来"</t>
+    <t>小喽喽</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>西门龙</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"兄弟，别打脸~"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1042,9 +1039,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1145,19 +1144,19 @@
         <v>60001</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
       </c>
       <c r="D5">
         <v>100</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>10011</v>
@@ -1174,38 +1173,15 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F6">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>10011</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>60003</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7">
         <v>10011</v>
       </c>
     </row>

--- a/Config/Monster.xlsx
+++ b/Config/Monster.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>怪物ID</t>
   </si>
@@ -87,6 +87,22 @@
   </si>
   <si>
     <t>"兄弟，别打脸~"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属场景</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发几率</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rate</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1039,15 +1055,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1069,8 +1085,14 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1114,14 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1115,8 +1143,14 @@
       <c r="G3" t="s">
         <v>15</v>
       </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>69999</v>
       </c>
@@ -1139,7 +1173,7 @@
         <v>99901</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>60001</v>
       </c>
@@ -1161,8 +1195,14 @@
       <c r="G5">
         <v>10011</v>
       </c>
+      <c r="H5">
+        <v>1001</v>
+      </c>
+      <c r="I5">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>60002</v>
       </c>
@@ -1183,10 +1223,17 @@
       </c>
       <c r="G6">
         <v>10011</v>
+      </c>
+      <c r="H6">
+        <v>1001</v>
+      </c>
+      <c r="I6">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Config/Monster.xlsx
+++ b/Config/Monster.xlsx
@@ -75,9 +75,6 @@
     <t>自己</t>
   </si>
   <si>
-    <t>"我错了。大侠，饶命啊！"</t>
-  </si>
-  <si>
     <t>小喽喽</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -86,10 +83,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>"兄弟，别打脸~"</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>所属场景</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -103,6 +96,14 @@
   </si>
   <si>
     <t>Rate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我错了。大侠，饶命啊！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>兄弟，别打脸~</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1058,7 +1059,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1086,10 +1087,10 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1144,10 +1145,10 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
         <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1178,10 +1179,10 @@
         <v>60001</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -1207,10 +1208,10 @@
         <v>60002</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>250</v>

--- a/Config/Monster.xlsx
+++ b/Config/Monster.xlsx
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>60001</v>
+        <v>20001</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>60002</v>
+        <v>20002</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>

--- a/Config/Monster.xlsx
+++ b/Config/Monster.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7875"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20085" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>怪物ID</t>
   </si>
@@ -39,9 +39,33 @@
     <t>防御</t>
   </si>
   <si>
+    <t>力量</t>
+  </si>
+  <si>
+    <t>敏捷</t>
+  </si>
+  <si>
+    <t>体质</t>
+  </si>
+  <si>
+    <t>魅力</t>
+  </si>
+  <si>
+    <t>感知</t>
+  </si>
+  <si>
     <t>技能</t>
   </si>
   <si>
+    <t>所属场景</t>
+  </si>
+  <si>
+    <t>触发几率</t>
+  </si>
+  <si>
+    <t>掉落</t>
+  </si>
+  <si>
     <t>int32</t>
   </si>
   <si>
@@ -66,9 +90,33 @@
     <t>Def</t>
   </si>
   <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Agile</t>
+  </si>
+  <si>
+    <t>Physic</t>
+  </si>
+  <si>
+    <t>Charm</t>
+  </si>
+  <si>
+    <t>Perception</t>
+  </si>
+  <si>
     <t>Skill</t>
   </si>
   <si>
+    <t>Scene</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Drop</t>
+  </si>
+  <si>
     <t>我</t>
   </si>
   <si>
@@ -76,35 +124,15 @@
   </si>
   <si>
     <t>小喽喽</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我错了。大侠，饶命啊！</t>
   </si>
   <si>
     <t>西门龙</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属场景</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scene</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发几率</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rate</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>我错了。大侠，饶命啊！</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>兄弟，别打脸~</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1056,15 +1084,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1087,79 +1113,133 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
         <v>22</v>
       </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>69999</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -1168,21 +1248,21 @@
         <v>1000</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="L4">
         <v>99901</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>20001</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -1193,25 +1273,28 @@
       <c r="F5">
         <v>10</v>
       </c>
-      <c r="G5">
+      <c r="L5">
         <v>10011</v>
       </c>
-      <c r="H5">
+      <c r="M5">
         <v>1001</v>
       </c>
-      <c r="I5">
+      <c r="N5">
         <v>30</v>
       </c>
+      <c r="O5">
+        <v>30002</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20002</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <v>250</v>
@@ -1222,19 +1305,21 @@
       <c r="F6">
         <v>20</v>
       </c>
-      <c r="G6">
+      <c r="L6">
         <v>10011</v>
       </c>
-      <c r="H6">
+      <c r="M6">
         <v>1001</v>
       </c>
-      <c r="I6">
+      <c r="N6">
         <v>45</v>
+      </c>
+      <c r="O6">
+        <v>30001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Config/Monster.xlsx
+++ b/Config/Monster.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\lulu_Survival\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\unityws\lulu_Survive\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>怪物ID</t>
   </si>
@@ -133,6 +133,22 @@
   </si>
   <si>
     <t>兄弟，别打脸~</t>
+  </si>
+  <si>
+    <t>噜霸天</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳资的烧饼你也敢捡</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>耗子</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>你小子也有今天</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1084,9 +1100,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1265,7 +1283,7 @@
         <v>35</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -1277,7 +1295,7 @@
         <v>10011</v>
       </c>
       <c r="M5">
-        <v>1001</v>
+        <v>111</v>
       </c>
       <c r="N5">
         <v>30</v>
@@ -1297,7 +1315,7 @@
         <v>37</v>
       </c>
       <c r="D6">
-        <v>250</v>
+        <v>10000</v>
       </c>
       <c r="E6">
         <v>60</v>
@@ -1309,13 +1327,65 @@
         <v>10011</v>
       </c>
       <c r="M6">
-        <v>1001</v>
+        <v>111</v>
       </c>
       <c r="N6">
         <v>45</v>
       </c>
       <c r="O6">
         <v>30001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>20003</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7">
+        <v>10000</v>
+      </c>
+      <c r="E7">
+        <v>90</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="L7">
+        <v>10011</v>
+      </c>
+      <c r="M7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>20004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <v>10000</v>
+      </c>
+      <c r="E8">
+        <v>120</v>
+      </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
+      <c r="L8">
+        <v>10011</v>
+      </c>
+      <c r="M8">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Monster.xlsx
+++ b/Config/Monster.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\unityws\lulu_Survive\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\lulu_Survival\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -741,8 +741,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1103,293 +1106,297 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="H12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>69999</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>100</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>1000</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>10</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>99901</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>20001</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>10000</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>30</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>10</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>10011</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <v>111</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>30</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="1">
         <v>30002</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>20002</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>10000</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>60</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>20</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <v>10011</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="1">
         <v>111</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="1">
         <v>45</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="1">
         <v>30001</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>20003</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>10000</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>90</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>30</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <v>10011</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="1">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>20004</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>10000</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>120</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>40</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="1">
         <v>10011</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="1">
         <v>111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Config/Monster.xlsx
+++ b/Config/Monster.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
   <si>
     <t>怪物ID</t>
   </si>
@@ -123,32 +123,119 @@
     <t>自己</t>
   </si>
   <si>
-    <t>小喽喽</t>
-  </si>
-  <si>
-    <t>我错了。大侠，饶命啊！</t>
-  </si>
-  <si>
-    <t>西门龙</t>
-  </si>
-  <si>
-    <t>兄弟，别打脸~</t>
-  </si>
-  <si>
-    <t>噜霸天</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>劳资的烧饼你也敢捡</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>耗子</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>你小子也有今天</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002</t>
+  </si>
+  <si>
+    <t>10003</t>
+  </si>
+  <si>
+    <t>10004</t>
+  </si>
+  <si>
+    <t>乞丐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>小子，找死啊，这是我的地盘。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>20004</t>
+  </si>
+  <si>
+    <t>大爷，行行好，施舍点吧~</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>20002</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>150</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>野猴</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>吱吱——</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>赖婆婆</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>臭小子，还想非礼老娘，去死吧！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10005</t>
+  </si>
+  <si>
+    <t>10006</t>
+  </si>
+  <si>
+    <t>耗子</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>小子，找死！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>20003</t>
+  </si>
+  <si>
+    <t>20005</t>
+  </si>
+  <si>
+    <t>20006</t>
   </si>
 </sst>
 </file>
@@ -1103,10 +1190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="A1:XFD1048576"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1279,17 +1366,17 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>20001</v>
+      <c r="A5" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="1">
-        <v>10000</v>
+        <v>41</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E5" s="1">
         <v>30</v>
@@ -1297,101 +1384,141 @@
       <c r="F5" s="1">
         <v>10</v>
       </c>
-      <c r="L5" s="1">
-        <v>10011</v>
-      </c>
-      <c r="M5" s="1">
-        <v>111</v>
-      </c>
-      <c r="N5" s="1">
-        <v>30</v>
-      </c>
-      <c r="O5" s="1">
-        <v>30002</v>
+      <c r="O5" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>20002</v>
+      <c r="A6" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E6" s="1">
-        <v>60</v>
-      </c>
-      <c r="F6" s="1">
-        <v>20</v>
-      </c>
-      <c r="L6" s="1">
-        <v>10011</v>
-      </c>
-      <c r="M6" s="1">
-        <v>111</v>
-      </c>
-      <c r="N6" s="1">
-        <v>45</v>
-      </c>
-      <c r="O6" s="1">
-        <v>30001</v>
+        <v>56</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>20003</v>
+      <c r="A7" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E7" s="1">
-        <v>90</v>
-      </c>
-      <c r="F7" s="1">
-        <v>30</v>
-      </c>
-      <c r="L7" s="1">
-        <v>10011</v>
-      </c>
-      <c r="M7" s="1">
-        <v>111</v>
+        <v>60</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>20004</v>
+      <c r="A8" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E8" s="1">
-        <v>120</v>
-      </c>
-      <c r="F8" s="1">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="1">
         <v>40</v>
       </c>
-      <c r="L8" s="1">
-        <v>10011</v>
-      </c>
-      <c r="M8" s="1">
-        <v>111</v>
+      <c r="M10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
